--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,511 +971,581 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="D2" s="1">
+        <f t="shared" ref="D2:D29" ca="1" si="0">D3-1</f>
         <v>44991</v>
       </c>
       <c r="E2">
-        <v>31.64</v>
+        <v>15.64</v>
       </c>
       <c r="K2">
-        <f>_xlfn.DAYS(D2,$K$1)</f>
+        <f ca="1">_xlfn.DAYS(D2,$K$1)</f>
         <v>19422</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44992</v>
       </c>
       <c r="E3">
-        <v>34.64</v>
+        <v>12.64</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K39" si="0">_xlfn.DAYS(D3,$K$1)</f>
+        <f t="shared" ref="K3:K39" ca="1" si="1">_xlfn.DAYS(D3,$K$1)</f>
         <v>19423</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44993</v>
       </c>
       <c r="E4">
-        <v>31.74</v>
+        <v>15.54</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19424</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44994</v>
       </c>
       <c r="E5">
-        <v>34.54</v>
+        <v>12.74</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19425</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44995</v>
       </c>
       <c r="E6">
-        <v>31.84</v>
+        <v>15.44</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19426</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44996</v>
       </c>
       <c r="E7">
-        <v>34.44</v>
+        <v>12.84</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19427</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44997</v>
       </c>
       <c r="E8">
-        <v>31.94</v>
+        <v>15.34</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19428</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44998</v>
       </c>
       <c r="E9">
-        <v>34.340000000000003</v>
+        <v>12.94</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19429</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>44999</v>
       </c>
       <c r="E10">
-        <v>32.04</v>
+        <v>15.24</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19430</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45000</v>
       </c>
       <c r="E11">
-        <v>34.24</v>
+        <v>13.04</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19431</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45001</v>
       </c>
       <c r="E12">
-        <v>32.14</v>
+        <v>15.14</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19432</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45002</v>
       </c>
       <c r="E13">
-        <v>34.14</v>
+        <v>13.14</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19433</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45003</v>
       </c>
       <c r="E14">
-        <v>32.24</v>
+        <v>15.04</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19434</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45004</v>
       </c>
       <c r="E15">
-        <v>34.04</v>
+        <v>13.24</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19435</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45005</v>
       </c>
       <c r="E16">
-        <v>32.340000000000003</v>
+        <v>14.94</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19436</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45006</v>
       </c>
       <c r="E17">
-        <v>33.94</v>
+        <v>13.34</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19437</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45007</v>
       </c>
       <c r="E18">
-        <v>32.44</v>
+        <v>14.84</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19438</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45008</v>
       </c>
       <c r="E19">
-        <v>33.840000000000003</v>
+        <v>13.44</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19439</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45009</v>
       </c>
       <c r="E20">
-        <v>32.54</v>
+        <v>14.74</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19440</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45010</v>
       </c>
       <c r="E21">
-        <v>33.74</v>
+        <v>13.54</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19441</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45011</v>
       </c>
       <c r="E22">
-        <v>32.64</v>
+        <v>14.64</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19442</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45012</v>
       </c>
       <c r="E23">
-        <v>33.64</v>
+        <v>13.64</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19443</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45013</v>
       </c>
       <c r="E24">
-        <v>32.74</v>
+        <v>14.54</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19444</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45014</v>
       </c>
       <c r="E25">
-        <v>33.54</v>
+        <v>13.74</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19445</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45015</v>
       </c>
       <c r="E26">
-        <v>32.840000000000003</v>
+        <v>14.44</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19446</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45016</v>
       </c>
       <c r="E27">
-        <v>33.44</v>
+        <v>13.84</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19447</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45017</v>
       </c>
       <c r="E28">
-        <v>32.94</v>
+        <v>14.34</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19448</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" s="1">
+        <f t="shared" ca="1" si="0"/>
         <v>45018</v>
       </c>
       <c r="E29">
-        <v>33.340000000000003</v>
+        <v>13.94</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19449</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="1">
+        <f ca="1">D31-1</f>
         <v>45019</v>
       </c>
       <c r="E30">
-        <v>33.04</v>
+        <v>14.24</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19450</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="1">
+        <f ca="1">TODAY()-1</f>
         <v>45020</v>
       </c>
       <c r="E31">
-        <v>33.24</v>
+        <v>14.04</v>
       </c>
       <c r="F31">
-        <f>LINEST($E$2:$E$31,$D$2:$D$31,D32)</f>
-        <v>5.3392658509455139E-3</v>
+        <f ca="1">LINEST($E$2:$E$31,$D$2:$D$31,D32)</f>
+        <v>-5.3392658509455052E-3</v>
       </c>
       <c r="G31">
-        <f>$H$31-$F$31*$L$32</f>
-        <v>-70.636640711902459</v>
+        <f ca="1">$H$31-$F$31*$L$32</f>
+        <v>117.91664071190232</v>
       </c>
       <c r="H31">
         <f>SUM(E2:E31)/30</f>
-        <v>33.140000000000008</v>
+        <v>14.139999999999999</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19451</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="1">
+        <f ca="1">D31+1</f>
         <v>45021</v>
       </c>
       <c r="E32">
-        <f>$F$31*K32+$G$31</f>
-        <v>33.222758620689675</v>
+        <f ca="1">$F$31*K32+$G$31</f>
+        <v>14.057241379310355</v>
+      </c>
+      <c r="F32">
+        <f ca="1">ROUND(E32,2)</f>
+        <v>14.06</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f ca="1">_xlfn.DAYS(D32,$K$1)</f>
         <v>19452</v>
       </c>
       <c r="L32">
-        <f>SUM(K2:K31)/30</f>
+        <f ca="1">SUM(K2:K31)/30</f>
         <v>19436.5</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
+        <f t="shared" ref="D33:D39" ca="1" si="2">D32+1</f>
         <v>45022</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E39" si="1">$F$31*K33+$G$31</f>
-        <v>33.228097886540624</v>
+        <f t="shared" ref="E33:E39" ca="1" si="3">$F$31*K33+$G$31</f>
+        <v>14.051902113459406</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F39" ca="1" si="4">ROUND(E33,2)</f>
+        <v>14.05</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19453</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>45023</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
-        <v>33.233437152391573</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14.046562847608456</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.05</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19454</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>45024</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
-        <v>33.238776418242509</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14.041223581757521</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.04</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19455</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>45025</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
-        <v>33.244115684093458</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14.035884315906571</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.04</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19456</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>45026</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
-        <v>33.249454949944408</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14.030545050055622</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.03</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19457</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>45027</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
-        <v>33.254794215795357</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14.025205784204672</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.03</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19458</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
+        <f t="shared" ca="1" si="2"/>
         <v>45028</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
-        <v>33.260133481646292</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>14.019866518353737</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="4"/>
+        <v>14.02</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>19459</v>
       </c>
     </row>
@@ -1501,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J2:J32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,512 +1599,582 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="D2" s="1">
-        <v>44991</v>
+        <f t="shared" ref="D2:D29" ca="1" si="0">D3-1</f>
+        <v>44992</v>
       </c>
       <c r="E2">
-        <v>15.64</v>
+        <v>31.64</v>
       </c>
       <c r="K2">
-        <f>_xlfn.DAYS(D2,$K$1)</f>
-        <v>19422</v>
+        <f ca="1">_xlfn.DAYS(D2,$K$1)</f>
+        <v>19423</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1">
-        <v>44992</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44993</v>
       </c>
       <c r="E3">
-        <v>12.64</v>
+        <v>34.64</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K39" si="0">_xlfn.DAYS(D3,$K$1)</f>
-        <v>19423</v>
+        <f t="shared" ref="K3:K39" ca="1" si="1">_xlfn.DAYS(D3,$K$1)</f>
+        <v>19424</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="1">
-        <v>44993</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44994</v>
       </c>
       <c r="E4">
-        <v>15.54</v>
+        <v>31.74</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
-        <v>19424</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19425</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="1">
-        <v>44994</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44995</v>
       </c>
       <c r="E5">
-        <v>12.74</v>
+        <v>34.54</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>19425</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19426</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="1">
-        <v>44995</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44996</v>
       </c>
       <c r="E6">
-        <v>15.44</v>
+        <v>31.84</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>19426</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19427</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1">
-        <v>44996</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44997</v>
       </c>
       <c r="E7">
-        <v>12.84</v>
+        <v>34.44</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>19427</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19428</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1">
-        <v>44997</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44998</v>
       </c>
       <c r="E8">
-        <v>15.34</v>
+        <v>31.94</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>19428</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19429</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1">
-        <v>44998</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44999</v>
       </c>
       <c r="E9">
-        <v>12.94</v>
+        <v>34.340000000000003</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>19429</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19430</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1">
-        <v>44999</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45000</v>
       </c>
       <c r="E10">
-        <v>15.24</v>
+        <v>32.04</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
-        <v>19430</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19431</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1">
-        <v>45000</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45001</v>
       </c>
       <c r="E11">
-        <v>13.04</v>
+        <v>34.24</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
-        <v>19431</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19432</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1">
-        <v>45001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45002</v>
       </c>
       <c r="E12">
-        <v>15.14</v>
+        <v>32.14</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
-        <v>19432</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19433</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1">
-        <v>45002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45003</v>
       </c>
       <c r="E13">
-        <v>13.14</v>
+        <v>34.14</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
-        <v>19433</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19434</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1">
-        <v>45003</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45004</v>
       </c>
       <c r="E14">
-        <v>15.04</v>
+        <v>32.24</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
-        <v>19434</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19435</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1">
-        <v>45004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45005</v>
       </c>
       <c r="E15">
-        <v>13.24</v>
+        <v>34.04</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
-        <v>19435</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19436</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1">
-        <v>45005</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45006</v>
       </c>
       <c r="E16">
-        <v>14.94</v>
+        <v>32.340000000000003</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
-        <v>19436</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19437</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1">
-        <v>45006</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45007</v>
       </c>
       <c r="E17">
-        <v>13.34</v>
+        <v>33.94</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
-        <v>19437</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19438</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1">
-        <v>45007</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45008</v>
       </c>
       <c r="E18">
-        <v>14.84</v>
+        <v>32.44</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
-        <v>19438</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19439</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1">
-        <v>45008</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45009</v>
       </c>
       <c r="E19">
-        <v>13.44</v>
+        <v>33.840000000000003</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
-        <v>19439</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19440</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1">
-        <v>45009</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45010</v>
       </c>
       <c r="E20">
-        <v>14.74</v>
+        <v>32.54</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
-        <v>19440</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19441</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1">
-        <v>45010</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45011</v>
       </c>
       <c r="E21">
-        <v>13.54</v>
+        <v>33.74</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
-        <v>19441</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19442</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1">
-        <v>45011</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45012</v>
       </c>
       <c r="E22">
-        <v>14.64</v>
+        <v>32.64</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
-        <v>19442</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19443</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1">
-        <v>45012</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45013</v>
       </c>
       <c r="E23">
-        <v>13.64</v>
+        <v>33.64</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
-        <v>19443</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19444</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1">
-        <v>45013</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45014</v>
       </c>
       <c r="E24">
-        <v>14.54</v>
+        <v>32.74</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
-        <v>19444</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19445</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" s="1">
-        <v>45014</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45015</v>
       </c>
       <c r="E25">
-        <v>13.74</v>
+        <v>33.54</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
-        <v>19445</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19446</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="1">
-        <v>45015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45016</v>
       </c>
       <c r="E26">
-        <v>14.44</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
-        <v>19446</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19447</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="1">
-        <v>45016</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45017</v>
       </c>
       <c r="E27">
-        <v>13.84</v>
+        <v>33.44</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
-        <v>19447</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19448</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" s="1">
-        <v>45017</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45018</v>
       </c>
       <c r="E28">
-        <v>14.34</v>
+        <v>32.94</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
-        <v>19448</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19449</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" s="1">
-        <v>45018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45019</v>
       </c>
       <c r="E29">
-        <v>13.94</v>
+        <v>33.340000000000003</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
-        <v>19449</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19450</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="1">
-        <v>45019</v>
+        <f ca="1">D31-1</f>
+        <v>45020</v>
       </c>
       <c r="E30">
-        <v>14.24</v>
+        <v>33.04</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
-        <v>19450</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19451</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="1">
-        <v>45020</v>
+        <f ca="1">TODAY()</f>
+        <v>45021</v>
       </c>
       <c r="E31">
-        <v>14.04</v>
+        <v>33.24</v>
       </c>
       <c r="F31">
-        <f>LINEST($E$2:$E$31,$D$2:$D$31,D32)</f>
-        <v>-5.3392658509455052E-3</v>
+        <f ca="1">LINEST($E$2:$E$31,$D$2:$D$31,D32)</f>
+        <v>5.3392658509455139E-3</v>
       </c>
       <c r="G31">
-        <f>$H$31-$F$31*$L$32</f>
-        <v>117.91664071190232</v>
+        <f ca="1">$H$31-$F$31*$L$32</f>
+        <v>-70.641979977753408</v>
       </c>
       <c r="H31">
         <f>SUM(E2:E31)/30</f>
-        <v>14.139999999999999</v>
+        <v>33.140000000000008</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
-        <v>19451</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19452</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="1">
-        <v>45021</v>
+        <f ca="1">D31+1</f>
+        <v>45022</v>
       </c>
       <c r="E32">
-        <f>$F$31*K32+$G$31</f>
-        <v>14.057241379310355</v>
+        <f ca="1">$F$31*K32+$G$31</f>
+        <v>33.222758620689675</v>
+      </c>
+      <c r="F32">
+        <f ca="1">ROUND(E32,2)</f>
+        <v>33.22</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
-        <v>19452</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19453</v>
       </c>
       <c r="L32">
-        <f>SUM(K2:K31)/30</f>
-        <v>19436.5</v>
+        <f ca="1">SUM(K2:K31)/30</f>
+        <v>19437.5</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
-        <v>45022</v>
+        <f t="shared" ref="D33:D39" ca="1" si="2">D32+1</f>
+        <v>45023</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E39" si="1">$F$31*K33+$G$31</f>
-        <v>14.051902113459406</v>
+        <f t="shared" ref="E33:E39" ca="1" si="3">$F$31*K33+$G$31</f>
+        <v>33.228097886540624</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F39" ca="1" si="4">ROUND(E33,2)</f>
+        <v>33.229999999999997</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
-        <v>19453</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19454</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
-        <v>45023</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45024</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
-        <v>14.046562847608456</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>33.233437152391559</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="4"/>
+        <v>33.229999999999997</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
-        <v>19454</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19455</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
-        <v>45024</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45025</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
-        <v>14.041223581757521</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>33.238776418242509</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="4"/>
+        <v>33.24</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
-        <v>19455</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19456</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
-        <v>45025</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45026</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
-        <v>14.035884315906571</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>33.244115684093458</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="4"/>
+        <v>33.24</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
-        <v>19456</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19457</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
-        <v>45026</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45027</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
-        <v>14.030545050055622</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>33.249454949944408</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="4"/>
+        <v>33.25</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
-        <v>19457</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19458</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="1">
-        <v>45027</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45028</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
-        <v>14.025205784204672</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>33.254794215795343</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="4"/>
+        <v>33.25</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
-        <v>19458</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19459</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
-        <v>45028</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45029</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
-        <v>14.019866518353737</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>33.260133481646292</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="4"/>
+        <v>33.26</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
-        <v>19459</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19460</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,413 +972,413 @@
       <c r="A2" s="1"/>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D29" ca="1" si="0">D3-1</f>
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="E2">
         <v>15.64</v>
       </c>
       <c r="K2">
         <f ca="1">_xlfn.DAYS(D2,$K$1)</f>
-        <v>19422</v>
+        <v>19423</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="E3">
         <v>12.64</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K39" ca="1" si="1">_xlfn.DAYS(D3,$K$1)</f>
-        <v>19423</v>
+        <v>19424</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="E4">
         <v>15.54</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>19424</v>
+        <v>19425</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="E5">
         <v>12.74</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>19425</v>
+        <v>19426</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="E6">
         <v>15.44</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>19426</v>
+        <v>19427</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="E7">
         <v>12.84</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>19427</v>
+        <v>19428</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="E8">
         <v>15.34</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>19428</v>
+        <v>19429</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="E9">
         <v>12.94</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>19429</v>
+        <v>19430</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="E10">
         <v>15.24</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>19430</v>
+        <v>19431</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="E11">
         <v>13.04</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>19431</v>
+        <v>19432</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="E12">
         <v>15.14</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>19432</v>
+        <v>19433</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="E13">
         <v>13.14</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>19433</v>
+        <v>19434</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="E14">
         <v>15.04</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>19434</v>
+        <v>19435</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="E15">
         <v>13.24</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>19435</v>
+        <v>19436</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="E16">
         <v>14.94</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>19436</v>
+        <v>19437</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="E17">
         <v>13.34</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>19437</v>
+        <v>19438</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="E18">
         <v>14.84</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>19438</v>
+        <v>19439</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="E19">
         <v>13.44</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>19439</v>
+        <v>19440</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="E20">
         <v>14.74</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>19440</v>
+        <v>19441</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="E21">
         <v>13.54</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>19441</v>
+        <v>19442</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="E22">
         <v>14.64</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>19442</v>
+        <v>19443</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="E23">
         <v>13.64</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>19443</v>
+        <v>19444</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="E24">
         <v>14.54</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>19444</v>
+        <v>19445</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="E25">
         <v>13.74</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>19445</v>
+        <v>19446</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="E26">
         <v>14.44</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>19446</v>
+        <v>19447</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="E27">
         <v>13.84</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>19447</v>
+        <v>19448</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="E28">
         <v>14.34</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>19448</v>
+        <v>19449</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="E29">
         <v>13.94</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>19449</v>
+        <v>19450</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">D31-1</f>
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="E30">
         <v>14.24</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>19450</v>
+        <v>19451</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="1">
         <f ca="1">TODAY()-1</f>
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="E31">
         <v>14.04</v>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="G31">
         <f ca="1">$H$31-$F$31*$L$32</f>
-        <v>117.91664071190232</v>
+        <v>117.92197997775325</v>
       </c>
       <c r="H31">
         <f>SUM(E2:E31)/30</f>
@@ -1397,18 +1397,18 @@
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
-        <v>19451</v>
+        <v>19452</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">D31+1</f>
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="E32">
         <f ca="1">$F$31*K32+$G$31</f>
-        <v>14.057241379310355</v>
+        <v>14.057241379310341</v>
       </c>
       <c r="F32">
         <f ca="1">ROUND(E32,2)</f>
@@ -1416,21 +1416,21 @@
       </c>
       <c r="K32">
         <f ca="1">_xlfn.DAYS(D32,$K$1)</f>
-        <v>19452</v>
+        <v>19453</v>
       </c>
       <c r="L32">
         <f ca="1">SUM(K2:K31)/30</f>
-        <v>19436.5</v>
+        <v>19437.5</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <f t="shared" ref="D33:D39" ca="1" si="2">D32+1</f>
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:E39" ca="1" si="3">$F$31*K33+$G$31</f>
-        <v>14.051902113459406</v>
+        <v>14.051902113459391</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33:F39" ca="1" si="4">ROUND(E33,2)</f>
@@ -1438,13 +1438,13 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="1"/>
-        <v>19453</v>
+        <v>19454</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="1"/>
-        <v>19454</v>
+        <v>19455</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>14.041223581757521</v>
+        <v>14.041223581757507</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="4"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="1"/>
-        <v>19455</v>
+        <v>19456</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>14.035884315906571</v>
+        <v>14.035884315906557</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="4"/>
@@ -1492,17 +1492,17 @@
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="1"/>
-        <v>19456</v>
+        <v>19457</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>14.030545050055622</v>
+        <v>14.030545050055608</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="4"/>
@@ -1510,13 +1510,13 @@
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="1"/>
-        <v>19457</v>
+        <v>19458</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
@@ -1528,17 +1528,17 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="1"/>
-        <v>19458</v>
+        <v>19459</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>14.019866518353737</v>
+        <v>14.019866518353723</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="4"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="1"/>
-        <v>19459</v>
+        <v>19460</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
@@ -1571,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,413 +1600,413 @@
       <c r="A2" s="1"/>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D29" ca="1" si="0">D3-1</f>
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="E2">
         <v>31.64</v>
       </c>
       <c r="K2">
         <f ca="1">_xlfn.DAYS(D2,$K$1)</f>
-        <v>19423</v>
+        <v>19424</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44993</v>
+        <v>44994</v>
       </c>
       <c r="E3">
         <v>34.64</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K39" ca="1" si="1">_xlfn.DAYS(D3,$K$1)</f>
-        <v>19424</v>
+        <v>19425</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>44995</v>
       </c>
       <c r="E4">
         <v>31.74</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>19425</v>
+        <v>19426</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>44996</v>
       </c>
       <c r="E5">
         <v>34.54</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>19426</v>
+        <v>19427</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>44997</v>
       </c>
       <c r="E6">
         <v>31.84</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>19427</v>
+        <v>19428</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>44998</v>
       </c>
       <c r="E7">
         <v>34.44</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>19428</v>
+        <v>19429</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44998</v>
+        <v>44999</v>
       </c>
       <c r="E8">
         <v>31.94</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>19429</v>
+        <v>19430</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44999</v>
+        <v>45000</v>
       </c>
       <c r="E9">
         <v>34.340000000000003</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>19430</v>
+        <v>19431</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="E10">
         <v>32.04</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>19431</v>
+        <v>19432</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="E11">
         <v>34.24</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>19432</v>
+        <v>19433</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>45003</v>
       </c>
       <c r="E12">
         <v>32.14</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>19433</v>
+        <v>19434</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>45004</v>
       </c>
       <c r="E13">
         <v>34.14</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>19434</v>
+        <v>19435</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>45005</v>
       </c>
       <c r="E14">
         <v>32.24</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>19435</v>
+        <v>19436</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45005</v>
+        <v>45006</v>
       </c>
       <c r="E15">
         <v>34.04</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>19436</v>
+        <v>19437</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45006</v>
+        <v>45007</v>
       </c>
       <c r="E16">
         <v>32.340000000000003</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>19437</v>
+        <v>19438</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>45008</v>
       </c>
       <c r="E17">
         <v>33.94</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>19438</v>
+        <v>19439</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>45009</v>
       </c>
       <c r="E18">
         <v>32.44</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>19439</v>
+        <v>19440</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>45010</v>
       </c>
       <c r="E19">
         <v>33.840000000000003</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>19440</v>
+        <v>19441</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>45011</v>
       </c>
       <c r="E20">
         <v>32.54</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>19441</v>
+        <v>19442</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>45012</v>
       </c>
       <c r="E21">
         <v>33.74</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>19442</v>
+        <v>19443</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45012</v>
+        <v>45013</v>
       </c>
       <c r="E22">
         <v>32.64</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>19443</v>
+        <v>19444</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45013</v>
+        <v>45014</v>
       </c>
       <c r="E23">
         <v>33.64</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>19444</v>
+        <v>19445</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>45015</v>
       </c>
       <c r="E24">
         <v>32.74</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>19445</v>
+        <v>19446</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>45016</v>
       </c>
       <c r="E25">
         <v>33.54</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>19446</v>
+        <v>19447</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="E26">
         <v>32.840000000000003</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>19447</v>
+        <v>19448</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>45018</v>
       </c>
       <c r="E27">
         <v>33.44</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>19448</v>
+        <v>19449</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="E28">
         <v>32.94</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>19449</v>
+        <v>19450</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="E29">
         <v>33.340000000000003</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>19450</v>
+        <v>19451</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">D31-1</f>
-        <v>45020</v>
+        <v>45021</v>
       </c>
       <c r="E30">
         <v>33.04</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>19451</v>
+        <v>19452</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="1">
         <f ca="1">TODAY()</f>
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="E31">
         <v>33.24</v>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="G31">
         <f ca="1">$H$31-$F$31*$L$32</f>
-        <v>-70.641979977753408</v>
+        <v>-70.647319243604358</v>
       </c>
       <c r="H31">
         <f>SUM(E2:E31)/30</f>
@@ -2025,14 +2025,14 @@
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
-        <v>19452</v>
+        <v>19453</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">D31+1</f>
-        <v>45022</v>
+        <v>45023</v>
       </c>
       <c r="E32">
         <f ca="1">$F$31*K32+$G$31</f>
@@ -2044,21 +2044,21 @@
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="1"/>
-        <v>19453</v>
+        <v>19454</v>
       </c>
       <c r="L32">
         <f ca="1">SUM(K2:K31)/30</f>
-        <v>19437.5</v>
+        <v>19438.5</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <f t="shared" ref="D33:D39" ca="1" si="2">D32+1</f>
-        <v>45023</v>
+        <v>45024</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:E39" ca="1" si="3">$F$31*K33+$G$31</f>
-        <v>33.228097886540624</v>
+        <v>33.22809788654061</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33:F39" ca="1" si="4">ROUND(E33,2)</f>
@@ -2066,13 +2066,13 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="1"/>
-        <v>19454</v>
+        <v>19455</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45024</v>
+        <v>45025</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="1"/>
-        <v>19455</v>
+        <v>19456</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45025</v>
+        <v>45026</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
@@ -2102,13 +2102,13 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="1"/>
-        <v>19456</v>
+        <v>19457</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
@@ -2120,17 +2120,17 @@
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="1"/>
-        <v>19457</v>
+        <v>19458</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>33.249454949944408</v>
+        <v>33.249454949944393</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="4"/>
@@ -2138,13 +2138,13 @@
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="1"/>
-        <v>19458</v>
+        <v>19459</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
@@ -2156,13 +2156,13 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="1"/>
-        <v>19459</v>
+        <v>19460</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="1"/>
-        <v>19460</v>
+        <v>19461</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -342,8 +342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,560 +377,560 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>33.200000000000003</v>
+        <v>67.34</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>33.19</v>
+        <v>66.64</v>
       </c>
       <c r="C3">
         <f>B3</f>
-        <v>33.19</v>
+        <v>66.64</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>33.18</v>
+        <v>67.239999999999995</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:G8" si="0">B4</f>
-        <v>33.18</v>
+        <v>67.239999999999995</v>
       </c>
       <c r="D4">
         <f>C4</f>
-        <v>33.18</v>
+        <v>67.239999999999995</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>33.17</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>33.17</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>33.17</v>
+        <v>66.739999999999995</v>
       </c>
       <c r="E5">
         <f>D5</f>
-        <v>33.17</v>
+        <v>66.739999999999995</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>33.159999999999997</v>
+        <v>67.14</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>33.159999999999997</v>
+        <v>67.14</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>33.159999999999997</v>
+        <v>67.14</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>33.159999999999997</v>
+        <v>67.14</v>
       </c>
       <c r="F6">
         <f>E6</f>
-        <v>33.159999999999997</v>
+        <v>67.14</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>33.15</v>
+        <v>66.84</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>33.15</v>
+        <v>66.84</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>33.15</v>
+        <v>66.84</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>33.15</v>
+        <v>66.84</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>33.15</v>
+        <v>66.84</v>
       </c>
       <c r="G7">
         <f>F7</f>
-        <v>33.15</v>
+        <v>66.84</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>33.14</v>
+        <v>67.040000000000006</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>33.14</v>
+        <v>67.040000000000006</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>33.14</v>
+        <v>67.040000000000006</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>33.14</v>
+        <v>67.040000000000006</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>33.14</v>
+        <v>67.040000000000006</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>33.14</v>
+        <v>67.040000000000006</v>
       </c>
       <c r="H8">
         <f>G8</f>
-        <v>33.14</v>
+        <v>67.040000000000006</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <f>SUM(B2:B8)</f>
-        <v>232.19</v>
+        <v>468.98000000000008</v>
       </c>
       <c r="C9">
-        <f>B9/7</f>
-        <v>33.17</v>
+        <f>ROUNDUP(B9/7,2)</f>
+        <v>67</v>
       </c>
       <c r="D9">
         <f t="shared" ref="D9:H9" si="1">C9</f>
-        <v>33.17</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>33.17</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>33.17</v>
+        <v>67</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>33.17</v>
+        <v>67</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>33.17</v>
+        <v>67</v>
       </c>
       <c r="I9">
         <f>H9</f>
-        <v>33.17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10">
         <f>SUM(C3:C9)</f>
-        <v>232.16000000000003</v>
+        <v>468.64000000000004</v>
       </c>
       <c r="D10">
         <f>C10/7</f>
-        <v>33.165714285714287</v>
+        <v>66.948571428571441</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:I10" si="2">D10</f>
-        <v>33.165714285714287</v>
+        <v>66.948571428571441</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>33.165714285714287</v>
+        <v>66.948571428571441</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>33.165714285714287</v>
+        <v>66.948571428571441</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>33.165714285714287</v>
+        <v>66.948571428571441</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>33.165714285714287</v>
+        <v>66.948571428571441</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D11">
         <f>SUM(D4:D10)</f>
-        <v>232.1357142857143</v>
+        <v>468.94857142857148</v>
       </c>
       <c r="E11">
         <f>D11/7</f>
-        <v>33.162244897959184</v>
+        <v>66.992653061224502</v>
       </c>
       <c r="F11">
         <f t="shared" ref="F11:I11" si="3">E11</f>
-        <v>33.162244897959184</v>
+        <v>66.992653061224502</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>33.162244897959184</v>
+        <v>66.992653061224502</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>33.162244897959184</v>
+        <v>66.992653061224502</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>33.162244897959184</v>
+        <v>66.992653061224502</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E12">
         <f>SUM(E5:E11)</f>
-        <v>232.11795918367346</v>
+        <v>468.70122448979589</v>
       </c>
       <c r="F12">
         <f>E12/7</f>
-        <v>33.159708454810492</v>
+        <v>66.95731778425656</v>
       </c>
       <c r="G12">
         <f t="shared" ref="G12:I12" si="4">F12</f>
-        <v>33.159708454810492</v>
+        <v>66.95731778425656</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>33.159708454810492</v>
+        <v>66.95731778425656</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>33.159708454810492</v>
+        <v>66.95731778425656</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F13">
         <f>SUM(F6:F12)</f>
-        <v>232.10766763848395</v>
+        <v>468.91854227405258</v>
       </c>
       <c r="G13">
         <f>F13/7</f>
-        <v>33.158238234069138</v>
+        <v>66.988363182007518</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:I13" si="5">G13</f>
-        <v>33.158238234069138</v>
+        <v>66.988363182007518</v>
       </c>
       <c r="I13">
         <f t="shared" si="5"/>
-        <v>33.158238234069138</v>
+        <v>66.988363182007518</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G14">
         <f>SUM(G7:G13)</f>
-        <v>232.10590587255311</v>
+        <v>468.76690545605999</v>
       </c>
       <c r="H14">
         <f>G14/7</f>
-        <v>33.157986553221875</v>
+        <v>66.966700779437147</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14" si="6">H14</f>
-        <v>33.157986553221875</v>
+        <v>66.966700779437147</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H15">
         <f>SUM(H8:H14)</f>
-        <v>232.11389242577496</v>
+        <v>468.8936062354972</v>
       </c>
       <c r="I15">
         <f>H15/7</f>
-        <v>33.159127489396425</v>
+        <v>66.984800890785309</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I16">
         <f>SUM(I9:I15)</f>
-        <v>232.13301991517142</v>
+        <v>468.83840712628245</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>51.1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>52.4</v>
+        <v>50.3</v>
       </c>
       <c r="C19">
         <f>B19</f>
-        <v>52.4</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>53.4</v>
+        <v>50.9</v>
       </c>
       <c r="C20">
         <f t="shared" ref="C20:C24" si="7">B20</f>
-        <v>53.4</v>
+        <v>50.9</v>
       </c>
       <c r="D20">
         <f>C20</f>
-        <v>53.4</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>52.7</v>
+        <v>50.4</v>
       </c>
       <c r="C21">
         <f t="shared" si="7"/>
-        <v>52.7</v>
+        <v>50.4</v>
       </c>
       <c r="D21">
         <f t="shared" ref="D21:D25" si="8">C21</f>
-        <v>52.7</v>
+        <v>50.4</v>
       </c>
       <c r="E21">
         <f>D21</f>
-        <v>52.7</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>52.6</v>
+        <v>50.8</v>
       </c>
       <c r="C22">
         <f t="shared" si="7"/>
-        <v>52.6</v>
+        <v>50.8</v>
       </c>
       <c r="D22">
         <f t="shared" si="8"/>
-        <v>52.6</v>
+        <v>50.8</v>
       </c>
       <c r="E22">
         <f t="shared" ref="E22:E26" si="9">D22</f>
-        <v>52.6</v>
+        <v>50.8</v>
       </c>
       <c r="F22">
         <f>E22</f>
-        <v>52.6</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>55.5</v>
+        <v>50.5</v>
       </c>
       <c r="C23">
         <f t="shared" si="7"/>
-        <v>55.5</v>
+        <v>50.5</v>
       </c>
       <c r="D23">
         <f t="shared" si="8"/>
-        <v>55.5</v>
+        <v>50.5</v>
       </c>
       <c r="E23">
         <f t="shared" si="9"/>
-        <v>55.5</v>
+        <v>50.5</v>
       </c>
       <c r="F23">
         <f t="shared" ref="F23:F27" si="10">E23</f>
-        <v>55.5</v>
+        <v>50.5</v>
       </c>
       <c r="G23">
         <f>F23</f>
-        <v>55.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="C24">
         <f t="shared" si="7"/>
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="D24">
         <f t="shared" si="8"/>
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="E24">
         <f t="shared" si="9"/>
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="F24">
         <f t="shared" si="10"/>
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="G24">
         <f t="shared" ref="G24:G28" si="11">F24</f>
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
       <c r="H24">
         <f>G24</f>
-        <v>50.6</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>SUM(B18:B24)</f>
-        <v>368.30000000000007</v>
+        <v>354.59999999999997</v>
       </c>
       <c r="C25">
         <f>B25/7</f>
-        <v>52.614285714285721</v>
+        <v>50.657142857142851</v>
       </c>
       <c r="D25">
         <f t="shared" si="8"/>
-        <v>52.614285714285721</v>
+        <v>50.657142857142851</v>
       </c>
       <c r="E25">
         <f t="shared" si="9"/>
-        <v>52.614285714285721</v>
+        <v>50.657142857142851</v>
       </c>
       <c r="F25">
         <f t="shared" si="10"/>
-        <v>52.614285714285721</v>
+        <v>50.657142857142851</v>
       </c>
       <c r="G25">
         <f t="shared" si="11"/>
-        <v>52.614285714285721</v>
+        <v>50.657142857142851</v>
       </c>
       <c r="H25">
         <f t="shared" ref="H25:H29" si="12">G25</f>
-        <v>52.614285714285721</v>
+        <v>50.657142857142851</v>
       </c>
       <c r="I25">
         <f>H25</f>
-        <v>52.614285714285721</v>
+        <v>50.657142857142851</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>SUM(C19:C25)</f>
-        <v>369.81428571428575</v>
+        <v>354.25714285714281</v>
       </c>
       <c r="D26">
         <f>C26/7</f>
-        <v>52.830612244897964</v>
+        <v>50.608163265306118</v>
       </c>
       <c r="E26">
         <f t="shared" si="9"/>
-        <v>52.830612244897964</v>
+        <v>50.608163265306118</v>
       </c>
       <c r="F26">
         <f t="shared" si="10"/>
-        <v>52.830612244897964</v>
+        <v>50.608163265306118</v>
       </c>
       <c r="G26">
         <f t="shared" si="11"/>
-        <v>52.830612244897964</v>
+        <v>50.608163265306118</v>
       </c>
       <c r="H26">
         <f t="shared" si="12"/>
-        <v>52.830612244897964</v>
+        <v>50.608163265306118</v>
       </c>
       <c r="I26">
         <f t="shared" ref="I26:I30" si="13">H26</f>
-        <v>52.830612244897964</v>
+        <v>50.608163265306118</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D27">
         <f>SUM(D20:D26)</f>
-        <v>370.24489795918367</v>
+        <v>354.56530612244899</v>
       </c>
       <c r="E27">
         <f>D27/7</f>
-        <v>52.89212827988338</v>
+        <v>50.652186588921282</v>
       </c>
       <c r="F27">
         <f t="shared" si="10"/>
-        <v>52.89212827988338</v>
+        <v>50.652186588921282</v>
       </c>
       <c r="G27">
         <f t="shared" si="11"/>
-        <v>52.89212827988338</v>
+        <v>50.652186588921282</v>
       </c>
       <c r="H27">
         <f t="shared" si="12"/>
-        <v>52.89212827988338</v>
+        <v>50.652186588921282</v>
       </c>
       <c r="I27">
         <f t="shared" si="13"/>
-        <v>52.89212827988338</v>
+        <v>50.652186588921282</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E28">
         <f>SUM(E21:E27)</f>
-        <v>369.73702623906706</v>
+        <v>354.31749271137022</v>
       </c>
       <c r="F28">
         <f>E28/7</f>
-        <v>52.819575177009582</v>
+        <v>50.616784673052891</v>
       </c>
       <c r="G28">
         <f t="shared" si="11"/>
-        <v>52.819575177009582</v>
+        <v>50.616784673052891</v>
       </c>
       <c r="H28">
         <f t="shared" si="12"/>
-        <v>52.819575177009582</v>
+        <v>50.616784673052891</v>
       </c>
       <c r="I28">
         <f t="shared" si="13"/>
-        <v>52.819575177009582</v>
+        <v>50.616784673052891</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F29">
         <f>SUM(F22:F28)</f>
-        <v>369.85660141607667</v>
+        <v>354.53427738442315</v>
       </c>
       <c r="G29">
         <f>F29/7</f>
-        <v>52.83665734515381</v>
+        <v>50.647753912060452</v>
       </c>
       <c r="H29">
         <f t="shared" si="12"/>
-        <v>52.83665734515381</v>
+        <v>50.647753912060452</v>
       </c>
       <c r="I29">
         <f t="shared" si="13"/>
-        <v>52.83665734515381</v>
+        <v>50.647753912060452</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G30">
         <f>SUM(G23:G29)</f>
-        <v>370.09325876123046</v>
+        <v>354.3820312964836</v>
       </c>
       <c r="H30">
         <f>G30/7</f>
-        <v>52.870465537318637</v>
+        <v>50.626004470926226</v>
       </c>
       <c r="I30">
         <f t="shared" si="13"/>
-        <v>52.870465537318637</v>
+        <v>50.626004470926226</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H31">
         <f>SUM(H24:H30)</f>
-        <v>367.4637242985491</v>
+        <v>354.50803576740981</v>
       </c>
       <c r="I31">
         <f>H31/7</f>
-        <v>52.494817756935582</v>
+        <v>50.644005109629973</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I32">
         <f>SUM(I25:I31)</f>
-        <v>369.35854205548469</v>
+        <v>354.45204087703979</v>
       </c>
     </row>
   </sheetData>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,424 +972,424 @@
       <c r="A2" s="1"/>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D29" ca="1" si="0">D3-1</f>
-        <v>44992</v>
+        <v>44631</v>
       </c>
       <c r="E2">
-        <v>15.64</v>
+        <v>12.64</v>
       </c>
       <c r="K2">
         <f ca="1">_xlfn.DAYS(D2,$K$1)</f>
-        <v>19423</v>
+        <v>19062</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44993</v>
+        <v>44632</v>
       </c>
       <c r="E3">
-        <v>12.64</v>
+        <v>15.64</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K39" ca="1" si="1">_xlfn.DAYS(D3,$K$1)</f>
-        <v>19424</v>
+        <v>19063</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>44633</v>
       </c>
       <c r="E4">
-        <v>15.54</v>
+        <v>12.74</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>19425</v>
+        <v>19064</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>44634</v>
       </c>
       <c r="E5">
-        <v>12.74</v>
+        <v>15.54</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>19426</v>
+        <v>19065</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>44635</v>
       </c>
       <c r="E6">
-        <v>15.44</v>
+        <v>12.84</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>19427</v>
+        <v>19066</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>44636</v>
       </c>
       <c r="E7">
-        <v>12.84</v>
+        <v>15.44</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>19428</v>
+        <v>19067</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44998</v>
+        <v>44637</v>
       </c>
       <c r="E8">
-        <v>15.34</v>
+        <v>12.94</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>19429</v>
+        <v>19068</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44999</v>
+        <v>44638</v>
       </c>
       <c r="E9">
-        <v>12.94</v>
+        <v>15.34</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>19430</v>
+        <v>19069</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>44639</v>
       </c>
       <c r="E10">
-        <v>15.24</v>
+        <v>13.04</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>19431</v>
+        <v>19070</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>44640</v>
       </c>
       <c r="E11">
-        <v>13.04</v>
+        <v>15.24</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>19432</v>
+        <v>19071</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>44641</v>
       </c>
       <c r="E12">
-        <v>15.14</v>
+        <v>13.14</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>19433</v>
+        <v>19072</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>44642</v>
       </c>
       <c r="E13">
-        <v>13.14</v>
+        <v>15.14</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>19434</v>
+        <v>19073</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>44643</v>
       </c>
       <c r="E14">
-        <v>15.04</v>
+        <v>13.24</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>19435</v>
+        <v>19074</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45005</v>
+        <v>44644</v>
       </c>
       <c r="E15">
-        <v>13.24</v>
+        <v>15.04</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>19436</v>
+        <v>19075</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45006</v>
+        <v>44645</v>
       </c>
       <c r="E16">
-        <v>14.94</v>
+        <v>13.34</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>19437</v>
+        <v>19076</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>44646</v>
       </c>
       <c r="E17">
-        <v>13.34</v>
+        <v>14.94</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>19438</v>
+        <v>19077</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>44647</v>
       </c>
       <c r="E18">
-        <v>14.84</v>
+        <v>13.44</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>19439</v>
+        <v>19078</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>44648</v>
       </c>
       <c r="E19">
-        <v>13.44</v>
+        <v>14.84</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>19440</v>
+        <v>19079</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>44649</v>
       </c>
       <c r="E20">
-        <v>14.74</v>
+        <v>13.54</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>19441</v>
+        <v>19080</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>44650</v>
       </c>
       <c r="E21">
-        <v>13.54</v>
+        <v>14.74</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>19442</v>
+        <v>19081</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45012</v>
+        <v>44651</v>
       </c>
       <c r="E22">
-        <v>14.64</v>
+        <v>13.64</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>19443</v>
+        <v>19082</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45013</v>
+        <v>44652</v>
       </c>
       <c r="E23">
-        <v>13.64</v>
+        <v>14.64</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>19444</v>
+        <v>19083</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>44653</v>
       </c>
       <c r="E24">
-        <v>14.54</v>
+        <v>13.74</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>19445</v>
+        <v>19084</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>44654</v>
       </c>
       <c r="E25">
-        <v>13.74</v>
+        <v>14.54</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>19446</v>
+        <v>19085</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>44655</v>
       </c>
       <c r="E26">
-        <v>14.44</v>
+        <v>13.84</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>19447</v>
+        <v>19086</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>44656</v>
       </c>
       <c r="E27">
-        <v>13.84</v>
+        <v>14.44</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>19448</v>
+        <v>19087</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>44657</v>
       </c>
       <c r="E28">
-        <v>14.34</v>
+        <v>13.94</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>19449</v>
+        <v>19088</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45019</v>
+        <v>44658</v>
       </c>
       <c r="E29">
-        <v>13.94</v>
+        <v>14.34</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>19450</v>
+        <v>19089</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">D31-1</f>
-        <v>45020</v>
+        <v>44659</v>
       </c>
       <c r="E30">
-        <v>14.24</v>
+        <v>14.04</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>19451</v>
+        <v>19090</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="1">
-        <f ca="1">TODAY()-1</f>
-        <v>45021</v>
+        <f ca="1">TODAY()-366</f>
+        <v>44660</v>
       </c>
       <c r="E31">
-        <v>14.04</v>
+        <v>14.24</v>
       </c>
       <c r="F31">
         <f ca="1">LINEST($E$2:$E$31,$D$2:$D$31,D32)</f>
-        <v>-5.3392658509455052E-3</v>
+        <v>5.3392658509455052E-3</v>
       </c>
       <c r="G31">
         <f ca="1">$H$31-$F$31*$L$32</f>
-        <v>117.92197997775325</v>
+        <v>-87.714505005561932</v>
       </c>
       <c r="H31">
         <f>SUM(E2:E31)/30</f>
@@ -1397,156 +1397,156 @@
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
-        <v>19452</v>
+        <v>19091</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="1">
-        <f ca="1">D31+1</f>
-        <v>45022</v>
+        <f ca="1">D31+366</f>
+        <v>45026</v>
       </c>
       <c r="E32">
         <f ca="1">$F$31*K32+$G$31</f>
-        <v>14.057241379310341</v>
+        <v>16.171590656284764</v>
       </c>
       <c r="F32">
         <f ca="1">ROUND(E32,2)</f>
-        <v>14.06</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="K32">
         <f ca="1">_xlfn.DAYS(D32,$K$1)</f>
-        <v>19453</v>
+        <v>19457</v>
       </c>
       <c r="L32">
         <f ca="1">SUM(K2:K31)/30</f>
-        <v>19437.5</v>
+        <v>19076.5</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <f t="shared" ref="D33:D39" ca="1" si="2">D32+1</f>
-        <v>45023</v>
+        <v>45027</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:E39" ca="1" si="3">$F$31*K33+$G$31</f>
-        <v>14.051902113459391</v>
+        <v>16.176929922135713</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33:F39" ca="1" si="4">ROUND(E33,2)</f>
-        <v>14.05</v>
+        <v>16.18</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="1"/>
-        <v>19454</v>
+        <v>19458</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45024</v>
+        <v>45028</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
-        <v>14.046562847608456</v>
+        <v>16.182269187986648</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="4"/>
-        <v>14.05</v>
+        <v>16.18</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="1"/>
-        <v>19455</v>
+        <v>19459</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45025</v>
+        <v>45029</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>14.041223581757507</v>
+        <v>16.187608453837598</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="4"/>
-        <v>14.04</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="1"/>
-        <v>19456</v>
+        <v>19460</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45026</v>
+        <v>45030</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>14.035884315906557</v>
+        <v>16.192947719688547</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="4"/>
-        <v>14.04</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="1"/>
-        <v>19457</v>
+        <v>19461</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45027</v>
+        <v>45031</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>14.030545050055608</v>
+        <v>16.198286985539497</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="4"/>
-        <v>14.03</v>
+        <v>16.2</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="1"/>
-        <v>19458</v>
+        <v>19462</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45028</v>
+        <v>45032</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>14.025205784204672</v>
+        <v>16.203626251390432</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="4"/>
-        <v>14.03</v>
+        <v>16.2</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="1"/>
-        <v>19459</v>
+        <v>19463</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45029</v>
+        <v>45033</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>14.019866518353723</v>
+        <v>16.208965517241381</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="4"/>
-        <v>14.02</v>
+        <v>16.21</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="1"/>
-        <v>19460</v>
+        <v>19464</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
@@ -1571,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,413 +1600,413 @@
       <c r="A2" s="1"/>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D29" ca="1" si="0">D3-1</f>
-        <v>44993</v>
+        <v>44631</v>
       </c>
       <c r="E2">
         <v>31.64</v>
       </c>
       <c r="K2">
         <f ca="1">_xlfn.DAYS(D2,$K$1)</f>
-        <v>19424</v>
+        <v>19062</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44994</v>
+        <v>44632</v>
       </c>
       <c r="E3">
         <v>34.64</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K39" ca="1" si="1">_xlfn.DAYS(D3,$K$1)</f>
-        <v>19425</v>
+        <v>19063</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44995</v>
+        <v>44633</v>
       </c>
       <c r="E4">
         <v>31.74</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>19426</v>
+        <v>19064</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44996</v>
+        <v>44634</v>
       </c>
       <c r="E5">
         <v>34.54</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>19427</v>
+        <v>19065</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44997</v>
+        <v>44635</v>
       </c>
       <c r="E6">
         <v>31.84</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>19428</v>
+        <v>19066</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44998</v>
+        <v>44636</v>
       </c>
       <c r="E7">
         <v>34.44</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>19429</v>
+        <v>19067</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44999</v>
+        <v>44637</v>
       </c>
       <c r="E8">
         <v>31.94</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>19430</v>
+        <v>19068</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45000</v>
+        <v>44638</v>
       </c>
       <c r="E9">
         <v>34.340000000000003</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>19431</v>
+        <v>19069</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45001</v>
+        <v>44639</v>
       </c>
       <c r="E10">
         <v>32.04</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>19432</v>
+        <v>19070</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45002</v>
+        <v>44640</v>
       </c>
       <c r="E11">
         <v>34.24</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>19433</v>
+        <v>19071</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45003</v>
+        <v>44641</v>
       </c>
       <c r="E12">
         <v>32.14</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>19434</v>
+        <v>19072</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45004</v>
+        <v>44642</v>
       </c>
       <c r="E13">
         <v>34.14</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>19435</v>
+        <v>19073</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45005</v>
+        <v>44643</v>
       </c>
       <c r="E14">
         <v>32.24</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>19436</v>
+        <v>19074</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45006</v>
+        <v>44644</v>
       </c>
       <c r="E15">
         <v>34.04</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>19437</v>
+        <v>19075</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45007</v>
+        <v>44645</v>
       </c>
       <c r="E16">
         <v>32.340000000000003</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>19438</v>
+        <v>19076</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45008</v>
+        <v>44646</v>
       </c>
       <c r="E17">
         <v>33.94</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>19439</v>
+        <v>19077</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45009</v>
+        <v>44647</v>
       </c>
       <c r="E18">
         <v>32.44</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>19440</v>
+        <v>19078</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45010</v>
+        <v>44648</v>
       </c>
       <c r="E19">
         <v>33.840000000000003</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>19441</v>
+        <v>19079</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45011</v>
+        <v>44649</v>
       </c>
       <c r="E20">
         <v>32.54</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>19442</v>
+        <v>19080</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45012</v>
+        <v>44650</v>
       </c>
       <c r="E21">
         <v>33.74</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>19443</v>
+        <v>19081</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45013</v>
+        <v>44651</v>
       </c>
       <c r="E22">
         <v>32.64</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>19444</v>
+        <v>19082</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45014</v>
+        <v>44652</v>
       </c>
       <c r="E23">
         <v>33.64</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>19445</v>
+        <v>19083</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45015</v>
+        <v>44653</v>
       </c>
       <c r="E24">
         <v>32.74</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>19446</v>
+        <v>19084</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45016</v>
+        <v>44654</v>
       </c>
       <c r="E25">
         <v>33.54</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>19447</v>
+        <v>19085</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45017</v>
+        <v>44655</v>
       </c>
       <c r="E26">
         <v>32.840000000000003</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>19448</v>
+        <v>19086</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45018</v>
+        <v>44656</v>
       </c>
       <c r="E27">
         <v>33.44</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>19449</v>
+        <v>19087</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45019</v>
+        <v>44657</v>
       </c>
       <c r="E28">
         <v>32.94</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>19450</v>
+        <v>19088</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45020</v>
+        <v>44658</v>
       </c>
       <c r="E29">
         <v>33.340000000000003</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>19451</v>
+        <v>19089</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">D31-1</f>
-        <v>45021</v>
+        <v>44659</v>
       </c>
       <c r="E30">
         <v>33.04</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>19452</v>
+        <v>19090</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="1">
-        <f ca="1">TODAY()</f>
-        <v>45022</v>
+        <f ca="1">TODAY()-366</f>
+        <v>44660</v>
       </c>
       <c r="E31">
         <v>33.24</v>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="G31">
         <f ca="1">$H$31-$F$31*$L$32</f>
-        <v>-70.647319243604358</v>
+        <v>-68.714505005562074</v>
       </c>
       <c r="H31">
         <f>SUM(E2:E31)/30</f>
@@ -2025,156 +2025,156 @@
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
-        <v>19453</v>
+        <v>19091</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="1">
-        <f ca="1">D31+1</f>
-        <v>45023</v>
+        <f ca="1">D31+366</f>
+        <v>45026</v>
       </c>
       <c r="E32">
         <f ca="1">$F$31*K32+$G$31</f>
-        <v>33.222758620689675</v>
+        <v>35.171590656284792</v>
       </c>
       <c r="F32">
         <f ca="1">ROUND(E32,2)</f>
-        <v>33.22</v>
+        <v>35.17</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="1"/>
-        <v>19454</v>
+        <v>19457</v>
       </c>
       <c r="L32">
         <f ca="1">SUM(K2:K31)/30</f>
-        <v>19438.5</v>
+        <v>19076.5</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <f t="shared" ref="D33:D39" ca="1" si="2">D32+1</f>
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:E39" ca="1" si="3">$F$31*K33+$G$31</f>
-        <v>33.22809788654061</v>
+        <v>35.176929922135741</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33:F39" ca="1" si="4">ROUND(E33,2)</f>
-        <v>33.229999999999997</v>
+        <v>35.18</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="1"/>
-        <v>19455</v>
+        <v>19458</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45025</v>
+        <v>45028</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
-        <v>33.233437152391559</v>
+        <v>35.182269187986677</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="4"/>
-        <v>33.229999999999997</v>
+        <v>35.18</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="1"/>
-        <v>19456</v>
+        <v>19459</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45026</v>
+        <v>45029</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
-        <v>33.238776418242509</v>
+        <v>35.187608453837626</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="4"/>
-        <v>33.24</v>
+        <v>35.19</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="1"/>
-        <v>19457</v>
+        <v>19460</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45027</v>
+        <v>45030</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>33.244115684093458</v>
+        <v>35.192947719688576</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="4"/>
-        <v>33.24</v>
+        <v>35.19</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="1"/>
-        <v>19458</v>
+        <v>19461</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45028</v>
+        <v>45031</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>33.249454949944393</v>
+        <v>35.198286985539511</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="4"/>
-        <v>33.25</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="1"/>
-        <v>19459</v>
+        <v>19462</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45029</v>
+        <v>45032</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
-        <v>33.254794215795343</v>
+        <v>35.20362625139046</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="4"/>
-        <v>33.25</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="1"/>
-        <v>19460</v>
+        <v>19463</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45030</v>
+        <v>45033</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
-        <v>33.260133481646292</v>
+        <v>35.20896551724141</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="4"/>
-        <v>33.26</v>
+        <v>35.21</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="1"/>
-        <v>19461</v>
+        <v>19464</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -972,413 +972,413 @@
       <c r="A2" s="1"/>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D29" ca="1" si="0">D3-1</f>
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="E2">
         <v>12.64</v>
       </c>
       <c r="K2">
         <f ca="1">_xlfn.DAYS(D2,$K$1)</f>
-        <v>19062</v>
+        <v>19063</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44632</v>
+        <v>44633</v>
       </c>
       <c r="E3">
         <v>15.64</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K39" ca="1" si="1">_xlfn.DAYS(D3,$K$1)</f>
-        <v>19063</v>
+        <v>19064</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="E4">
         <v>12.74</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>19064</v>
+        <v>19065</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="E5">
         <v>15.54</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>19065</v>
+        <v>19066</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="E6">
         <v>12.84</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>19066</v>
+        <v>19067</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="E7">
         <v>15.44</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>19067</v>
+        <v>19068</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="E8">
         <v>12.94</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>19068</v>
+        <v>19069</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="E9">
         <v>15.34</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>19069</v>
+        <v>19070</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="E10">
         <v>13.04</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>19070</v>
+        <v>19071</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="E11">
         <v>15.24</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>19071</v>
+        <v>19072</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="E12">
         <v>13.14</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>19072</v>
+        <v>19073</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="E13">
         <v>15.14</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>19073</v>
+        <v>19074</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="E14">
         <v>13.24</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>19074</v>
+        <v>19075</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="E15">
         <v>15.04</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>19075</v>
+        <v>19076</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="E16">
         <v>13.34</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>19076</v>
+        <v>19077</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="E17">
         <v>14.94</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>19077</v>
+        <v>19078</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="E18">
         <v>13.44</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>19078</v>
+        <v>19079</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="E19">
         <v>14.84</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>19079</v>
+        <v>19080</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="E20">
         <v>13.54</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>19080</v>
+        <v>19081</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="E21">
         <v>14.74</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>19081</v>
+        <v>19082</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="E22">
         <v>13.64</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>19082</v>
+        <v>19083</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="E23">
         <v>14.64</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>19083</v>
+        <v>19084</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="E24">
         <v>13.74</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>19084</v>
+        <v>19085</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="E25">
         <v>14.54</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>19085</v>
+        <v>19086</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="E26">
         <v>13.84</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>19086</v>
+        <v>19087</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="E27">
         <v>14.44</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>19087</v>
+        <v>19088</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="E28">
         <v>13.94</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>19088</v>
+        <v>19089</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="E29">
         <v>14.34</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>19089</v>
+        <v>19090</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">D31-1</f>
-        <v>44659</v>
+        <v>44660</v>
       </c>
       <c r="E30">
         <v>14.04</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>19090</v>
+        <v>19091</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="1">
         <f ca="1">TODAY()-366</f>
-        <v>44660</v>
+        <v>44661</v>
       </c>
       <c r="E31">
         <v>14.24</v>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="G31">
         <f ca="1">$H$31-$F$31*$L$32</f>
-        <v>-87.714505005561932</v>
+        <v>-87.719844271412882</v>
       </c>
       <c r="H31">
         <f>SUM(E2:E31)/30</f>
@@ -1397,14 +1397,14 @@
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
-        <v>19091</v>
+        <v>19092</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">D31+366</f>
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="E32">
         <f ca="1">$F$31*K32+$G$31</f>
@@ -1416,21 +1416,21 @@
       </c>
       <c r="K32">
         <f ca="1">_xlfn.DAYS(D32,$K$1)</f>
-        <v>19457</v>
+        <v>19458</v>
       </c>
       <c r="L32">
         <f ca="1">SUM(K2:K31)/30</f>
-        <v>19076.5</v>
+        <v>19077.5</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <f t="shared" ref="D33:D39" ca="1" si="2">D32+1</f>
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:E39" ca="1" si="3">$F$31*K33+$G$31</f>
-        <v>16.176929922135713</v>
+        <v>16.176929922135699</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33:F39" ca="1" si="4">ROUND(E33,2)</f>
@@ -1438,13 +1438,13 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="1"/>
-        <v>19458</v>
+        <v>19459</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
@@ -1456,13 +1456,13 @@
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="1"/>
-        <v>19459</v>
+        <v>19460</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
@@ -1474,13 +1474,13 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="1"/>
-        <v>19460</v>
+        <v>19461</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
@@ -1492,17 +1492,17 @@
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="1"/>
-        <v>19461</v>
+        <v>19462</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
-        <v>16.198286985539497</v>
+        <v>16.198286985539482</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="4"/>
@@ -1510,13 +1510,13 @@
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="1"/>
-        <v>19462</v>
+        <v>19463</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
@@ -1528,13 +1528,13 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="1"/>
-        <v>19463</v>
+        <v>19464</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="1"/>
-        <v>19464</v>
+        <v>19465</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
@@ -1571,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:D32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,413 +1600,413 @@
       <c r="A2" s="1"/>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D29" ca="1" si="0">D3-1</f>
-        <v>44631</v>
+        <v>44632</v>
       </c>
       <c r="E2">
         <v>31.64</v>
       </c>
       <c r="K2">
         <f ca="1">_xlfn.DAYS(D2,$K$1)</f>
-        <v>19062</v>
+        <v>19063</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="D3" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44632</v>
+        <v>44633</v>
       </c>
       <c r="E3">
         <v>34.64</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K39" ca="1" si="1">_xlfn.DAYS(D3,$K$1)</f>
-        <v>19063</v>
+        <v>19064</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44633</v>
+        <v>44634</v>
       </c>
       <c r="E4">
         <v>31.74</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>19064</v>
+        <v>19065</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44634</v>
+        <v>44635</v>
       </c>
       <c r="E5">
         <v>34.54</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>19065</v>
+        <v>19066</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="D6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44635</v>
+        <v>44636</v>
       </c>
       <c r="E6">
         <v>31.84</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>19066</v>
+        <v>19067</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44636</v>
+        <v>44637</v>
       </c>
       <c r="E7">
         <v>34.44</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>19067</v>
+        <v>19068</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44637</v>
+        <v>44638</v>
       </c>
       <c r="E8">
         <v>31.94</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>19068</v>
+        <v>19069</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44638</v>
+        <v>44639</v>
       </c>
       <c r="E9">
         <v>34.340000000000003</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>19069</v>
+        <v>19070</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="D10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="E10">
         <v>32.04</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>19070</v>
+        <v>19071</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="D11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="E11">
         <v>34.24</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>19071</v>
+        <v>19072</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="D12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="E12">
         <v>32.14</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>19072</v>
+        <v>19073</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="D13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="E13">
         <v>34.14</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>19073</v>
+        <v>19074</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="D14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="E14">
         <v>32.24</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>19074</v>
+        <v>19075</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="D15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="E15">
         <v>34.04</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>19075</v>
+        <v>19076</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="E16">
         <v>32.340000000000003</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>19076</v>
+        <v>19077</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="D17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="E17">
         <v>33.94</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>19077</v>
+        <v>19078</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="D18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="E18">
         <v>32.44</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>19078</v>
+        <v>19079</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="E19">
         <v>33.840000000000003</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>19079</v>
+        <v>19080</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="E20">
         <v>32.54</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>19080</v>
+        <v>19081</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="E21">
         <v>33.74</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>19081</v>
+        <v>19082</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="E22">
         <v>32.64</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>19082</v>
+        <v>19083</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="E23">
         <v>33.64</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="1"/>
-        <v>19083</v>
+        <v>19084</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="E24">
         <v>32.74</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="1"/>
-        <v>19084</v>
+        <v>19085</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="E25">
         <v>33.54</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="1"/>
-        <v>19085</v>
+        <v>19086</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="E26">
         <v>32.840000000000003</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="1"/>
-        <v>19086</v>
+        <v>19087</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="E27">
         <v>33.44</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="1"/>
-        <v>19087</v>
+        <v>19088</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="E28">
         <v>32.94</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="1"/>
-        <v>19088</v>
+        <v>19089</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="E29">
         <v>33.340000000000003</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="1"/>
-        <v>19089</v>
+        <v>19090</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" s="1">
         <f ca="1">D31-1</f>
-        <v>44659</v>
+        <v>44660</v>
       </c>
       <c r="E30">
         <v>33.04</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="1"/>
-        <v>19090</v>
+        <v>19091</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" s="1">
         <f ca="1">TODAY()-366</f>
-        <v>44660</v>
+        <v>44661</v>
       </c>
       <c r="E31">
         <v>33.24</v>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="G31">
         <f ca="1">$H$31-$F$31*$L$32</f>
-        <v>-68.714505005562074</v>
+        <v>-68.719844271413024</v>
       </c>
       <c r="H31">
         <f>SUM(E2:E31)/30</f>
@@ -2025,14 +2025,14 @@
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="1"/>
-        <v>19091</v>
+        <v>19092</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" s="1">
         <f ca="1">D31+366</f>
-        <v>45026</v>
+        <v>45027</v>
       </c>
       <c r="E32">
         <f ca="1">$F$31*K32+$G$31</f>
@@ -2044,21 +2044,21 @@
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="1"/>
-        <v>19457</v>
+        <v>19458</v>
       </c>
       <c r="L32">
         <f ca="1">SUM(K2:K31)/30</f>
-        <v>19076.5</v>
+        <v>19077.5</v>
       </c>
     </row>
     <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
         <f t="shared" ref="D33:D39" ca="1" si="2">D32+1</f>
-        <v>45027</v>
+        <v>45028</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:E39" ca="1" si="3">$F$31*K33+$G$31</f>
-        <v>35.176929922135741</v>
+        <v>35.176929922135727</v>
       </c>
       <c r="F33">
         <f t="shared" ref="F33:F39" ca="1" si="4">ROUND(E33,2)</f>
@@ -2066,13 +2066,13 @@
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="1"/>
-        <v>19458</v>
+        <v>19459</v>
       </c>
     </row>
     <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45028</v>
+        <v>45029</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="1"/>
-        <v>19459</v>
+        <v>19460</v>
       </c>
     </row>
     <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45029</v>
+        <v>45030</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="3"/>
@@ -2102,17 +2102,17 @@
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="1"/>
-        <v>19460</v>
+        <v>19461</v>
       </c>
     </row>
     <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45030</v>
+        <v>45031</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="3"/>
-        <v>35.192947719688576</v>
+        <v>35.192947719688561</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="4"/>
@@ -2120,13 +2120,13 @@
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="1"/>
-        <v>19461</v>
+        <v>19462</v>
       </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45031</v>
+        <v>45032</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="3"/>
@@ -2138,13 +2138,13 @@
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="1"/>
-        <v>19462</v>
+        <v>19463</v>
       </c>
     </row>
     <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="3"/>
@@ -2156,13 +2156,13 @@
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="1"/>
-        <v>19463</v>
+        <v>19464</v>
       </c>
     </row>
     <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45033</v>
+        <v>45034</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="3"/>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="1"/>
-        <v>19464</v>
+        <v>19465</v>
       </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.25">
